--- a/biology/Médecine/Cyclocéphaliens/Cyclocéphaliens.xlsx
+++ b/biology/Médecine/Cyclocéphaliens/Cyclocéphaliens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cycloc%C3%A9phaliens</t>
+          <t>Cyclocéphaliens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cyclocéphaliens (substantif mascuslin pluriel)[1]  sont un groupe tératologique constitué des cyclopes, des  cyclocéphales, des éthmocéphales, des cébocéphales, des édocéphales et des arhinocéphales.  Ce sont des êtres atteints d'une malformation de la face incluant la fusion des deux yeux en un œil médian ou la réunion des deux yeux dans une orbite unique médiane ou un rapprochement exagéré des deux orbites[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cyclocéphaliens (substantif mascuslin pluriel)  sont un groupe tératologique constitué des cyclopes, des  cyclocéphales, des éthmocéphales, des cébocéphales, des édocéphales et des arhinocéphales.  Ce sont des êtres atteints d'une malformation de la face incluant la fusion des deux yeux en un œil médian ou la réunion des deux yeux dans une orbite unique médiane ou un rapprochement exagéré des deux orbites.
 Cette malformation peut être associée à d'autres anomalies et surtout à l'holoprosencéphalie.
-On parle de « monstruosité cyclocéphalique[3] ». 
+On parle de « monstruosité cyclocéphalique ». 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cycloc%C3%A9phaliens</t>
+          <t>Cyclocéphaliens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste des malformations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le terme cyclocéphaliens regroupe les êtres atteints des malformations congénitales suivantes[4] classées par ordre alphabétiques  : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le terme cyclocéphaliens regroupe les êtres atteints des malformations congénitales suivantes classées par ordre alphabétiques  : 
 Arhinencéphalie (un arhinencéphale) : malformation caractérisée par l'absence de bulbe ou de bandelette olfactives et défaut du développement de la face (absence de la partie moyenne des lèvres supérieures, de la sous-cloison et de la cloison nasale donnant l'aspect de faux fente labial médiane total). L'arhinencéphalie est associée à un hypotélorisme et à une trigonocéphalie. Il s'agit d'une forme légère de l'ectroprosopie résultant d'un défaut de développement du bourgeon frontal et du cerveau olfactif (rhinocéphale).
 Cébocéphalie (un cébocéphale) : malformation caractérisée par la présence d'une hypotélorisme orbital associé à un appareil nasal atrophié et réduit à une seule narine simple, ce qui donne au cébocéphale une certaine ressemblance avec le singe (d'où le nom de cébocéphale, formé à partir des mots grecs κῆβος [kễbos], singe à longue queue et κεφαλή [kephalế], tête).
 Cyclocéphalie (un cyclocéphale) : malformation caractérisée par le fait que deux yeux sont confondus en un seul œil et dont l'appareil nasal est complètement atrophié.
